--- a/MessageList.xlsx
+++ b/MessageList.xlsx
@@ -7124,8 +7124,8 @@
         <v>223</v>
       </c>
       <c r="F109" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E109,""en"", ""ja"")"),"左側にタイトルを提供し、「削除」「警告」など、タイトルを可能な限りシンプルで直感的に保つ")</f>
-        <v>左側にタイトルを提供し、「削除」「警告」など、タイトルを可能な限りシンプルで直感的に保つ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E109,""en"", ""ja"")"),"左側にタイトルを提供し、「削除」「警告」など、タイトルを可能な限りシンプルで直感的に保ちます")</f>
+        <v>左側にタイトルを提供し、「削除」「警告」など、タイトルを可能な限りシンプルで直感的に保ちます</v>
       </c>
       <c r="G109" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E109,""en"",""zh-cn"")"),"在左侧提供标题，并保持标题尽可能简单和直观，例如“删除”“警告”")</f>
@@ -9266,8 +9266,8 @@
         <v>半决赛标题</v>
       </c>
       <c r="H177" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E177,""en"",""fr"")"),"Tête de demi-clôture")</f>
-        <v>Tête de demi-clôture</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E177,""en"",""fr"")"),"Semi-titre")</f>
+        <v>Semi-titre</v>
       </c>
       <c r="I177" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E177,""en"",""de"")"),"Halbdehnung")</f>
@@ -14104,8 +14104,8 @@
         <v>People Picker：左/右箭头键不应清除内容</v>
       </c>
       <c r="H329" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E329,""en"",""fr"")"),"Picker des personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu")</f>
-        <v>Picker des personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E329,""en"",""fr"")"),"Piègeur de personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu")</f>
+        <v>Piègeur de personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu</v>
       </c>
       <c r="I329" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E329,""en"",""de"")"),"People Picker: Die linke/rechte Pfeiltaste sollte den Inhalt nicht löschen")</f>
@@ -14269,8 +14269,8 @@
         <v>单击年度视图时，日期范围更改为月视图</v>
       </c>
       <c r="H334" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E334,""en"",""fr"")"),"DATE RAGGENT PARTICE À VISIER MOIS EN CLIQUER ANNUE")</f>
-        <v>DATE RAGGENT PARTICE À VISIER MOIS EN CLIQUER ANNUE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E334,""en"",""fr"")"),"DATE RANGETS PLAGE A Voir le mois en cliquant sur Affichage de l'année")</f>
+        <v>DATE RANGETS PLAGE A Voir le mois en cliquant sur Affichage de l'année</v>
       </c>
       <c r="I334" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E334,""en"",""de"")"),"Änderungen des Datumsbereichs bis zur Monatsansicht beim Klicken auf Jahresansicht")</f>
@@ -15622,8 +15622,8 @@
         <v>People Picker：左/右箭头键不应清除内容</v>
       </c>
       <c r="H375" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E375,""en"",""fr"")"),"Picker des personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu")</f>
-        <v>Picker des personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E375,""en"",""fr"")"),"Piègeur de personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu")</f>
+        <v>Piègeur de personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu</v>
       </c>
       <c r="I375" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E375,""en"",""de"")"),"People Picker: Die linke/rechte Pfeiltaste sollte den Inhalt nicht löschen")</f>
@@ -15787,8 +15787,8 @@
         <v>单击年度视图时，日期范围更改为月视图</v>
       </c>
       <c r="H380" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E380,""en"",""fr"")"),"DATE RAGGENT PARTICE À VISIER MOIS EN CLIQUER ANNUE")</f>
-        <v>DATE RAGGENT PARTICE À VISIER MOIS EN CLIQUER ANNUE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E380,""en"",""fr"")"),"DATE RANGETS PLAGE A Voir le mois en cliquant sur Affichage de l'année")</f>
+        <v>DATE RANGETS PLAGE A Voir le mois en cliquant sur Affichage de l'année</v>
       </c>
       <c r="I380" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E380,""en"",""de"")"),"Änderungen des Datumsbereichs bis zur Monatsansicht beim Klicken auf Jahresansicht")</f>
@@ -17140,8 +17140,8 @@
         <v>People Picker：左/右箭头键不应清除内容</v>
       </c>
       <c r="H421" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E421,""en"",""fr"")"),"Picker des personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu")</f>
-        <v>Picker des personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E421,""en"",""fr"")"),"Piègeur de personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu")</f>
+        <v>Piègeur de personnes: la clé de flèche gauche / droite ne doit pas effacer le contenu</v>
       </c>
       <c r="I421" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E421,""en"",""de"")"),"People Picker: Die linke/rechte Pfeiltaste sollte den Inhalt nicht löschen")</f>
@@ -17305,8 +17305,8 @@
         <v>单击年度视图时，日期范围更改为月视图</v>
       </c>
       <c r="H426" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E426,""en"",""fr"")"),"DATE RAGGENT PARTICE À VISIER MOIS EN CLIQUER ANNUE")</f>
-        <v>DATE RAGGENT PARTICE À VISIER MOIS EN CLIQUER ANNUE</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E426,""en"",""fr"")"),"DATE RANGETS PLAGE A Voir le mois en cliquant sur Affichage de l'année")</f>
+        <v>DATE RANGETS PLAGE A Voir le mois en cliquant sur Affichage de l'année</v>
       </c>
       <c r="I426" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E426,""en"",""de"")"),"Änderungen des Datumsbereichs bis zur Monatsansicht beim Klicken auf Jahresansicht")</f>
@@ -20143,8 +20143,8 @@
         <v>[VPAT]禁用按钮</v>
       </c>
       <c r="H512" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E512,""en"",""fr"")"),"Bouton [VPAT] Désactiver")</f>
-        <v>Bouton [VPAT] Désactiver</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E512,""en"",""fr"")"),"[VPAT] Désactiver le bouton")</f>
+        <v>[VPAT] Désactiver le bouton</v>
       </c>
       <c r="I512" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E512,""en"",""de"")"),"[VPAT] Taste deaktivieren")</f>
@@ -20201,8 +20201,8 @@
         <v>864</v>
       </c>
       <c r="F514" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E514,""en"", ""ja"")"),"Tempickerの前に試験管アイコンを取り外します")</f>
-        <v>Tempickerの前に試験管アイコンを取り外します</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E514,""en"", ""ja"")"),"Tempickerの前にテストチューブアイコンを取り外します")</f>
+        <v>Tempickerの前にテストチューブアイコンを取り外します</v>
       </c>
       <c r="G514" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E514,""en"",""zh-cn"")"),"在钟纸之前卸下试管图标")</f>
@@ -22882,8 +22882,8 @@
         <v>微光颜色不正确</v>
       </c>
       <c r="H595" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E595,""en"",""fr"")"),"Couleur scintillante n'est pas correcte")</f>
-        <v>Couleur scintillante n'est pas correcte</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E595,""en"",""fr"")"),"Couleur chatoyante n'est pas correcte")</f>
+        <v>Couleur chatoyante n'est pas correcte</v>
       </c>
       <c r="I595" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E595,""en"",""de"")"),"Schimmere Farbe nicht korrekt")</f>
@@ -23809,8 +23809,8 @@
         <v>1066</v>
       </c>
       <c r="F626" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E626,""en"", ""ja"")"),"必要なフィールドを備えたdatepicker")</f>
-        <v>必要なフィールドを備えたdatepicker</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E626,""en"", ""ja"")"),"必要なフィールドを備えたdatePicker")</f>
+        <v>必要なフィールドを備えたdatePicker</v>
       </c>
       <c r="G626" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E626,""en"",""zh-cn"")"),"带有必需字段的datepicker")</f>
@@ -23883,8 +23883,8 @@
         <v>日期范围允许用户从两个日历中选择一个日期范围。它让用户可以在同一天选择；范围时间为00：00-23：59。</v>
       </c>
       <c r="H628" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E628,""en"",""fr"")"),"Une plage de dates permet à l'utilisateur de choisir une plage de dates à partir de deux calendriers. Il permet à l'utilisateur de sélectionner le même jour; Le temps de portée sera de 00:00 - 23:59.")</f>
-        <v>Une plage de dates permet à l'utilisateur de choisir une plage de dates à partir de deux calendriers. Il permet à l'utilisateur de sélectionner le même jour; Le temps de portée sera de 00:00 - 23:59.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E628,""en"",""fr"")"),"Une plage de dates permet à l'utilisateur de choisir une plage de dates à partir de deux calendriers. Il permet à l'utilisateur de sélectionner le même jour; Le temps de plage sera de 00h00 à 23h59.")</f>
+        <v>Une plage de dates permet à l'utilisateur de choisir une plage de dates à partir de deux calendriers. Il permet à l'utilisateur de sélectionner le même jour; Le temps de plage sera de 00h00 à 23h59.</v>
       </c>
       <c r="I628" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E628,""en"",""de"")"),"Mit einem Datumsbereich kann der Benutzer einen Datumsbereich aus zwei Kalendern auswählen. Der Benutzer ermöglicht es am selben Tag. Die Reichweite ist 00:00 - 23:59.")</f>

--- a/MessageList.xlsx
+++ b/MessageList.xlsx
@@ -3298,10 +3298,10 @@
     <t>Certificate file</t>
   </si>
   <si>
-    <t>browse</t>
-  </si>
-  <si>
-    <t>Browse</t>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>Demo text</t>
   </si>
   <si>
     <t>uploader</t>
@@ -24425,20 +24425,20 @@
         <v>1096</v>
       </c>
       <c r="F646" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"", ""ja"")"),"ブラウズ")</f>
-        <v>ブラウズ</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"", ""ja"")"),"デモテキスト")</f>
+        <v>デモテキスト</v>
       </c>
       <c r="G646" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"",""zh-cn"")"),"浏览")</f>
-        <v>浏览</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"",""zh-cn"")"),"演示文字")</f>
+        <v>演示文字</v>
       </c>
       <c r="H646" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"",""fr"")"),"Parcourir")</f>
-        <v>Parcourir</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"",""fr"")"),"Texte de démonstration")</f>
+        <v>Texte de démonstration</v>
       </c>
       <c r="I646" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"",""de"")"),"Durchsuche")</f>
-        <v>Durchsuche</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLETRANSLATE(E646,""en"",""de"")"),"Demo -Text")</f>
+        <v>Demo -Text</v>
       </c>
     </row>
     <row r="647">
